--- a/Mission_Report_Gruppe.xlsx
+++ b/Mission_Report_Gruppe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alten\Documents\FH_SWF\APM\Praktikum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agando\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B6824-0AA7-4D98-82F7-CFF5B4F61610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8640BD-7D61-40CE-AC48-63E5D79DA249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{47557FCF-CD4E-BC47-A90A-AFC54E045C30}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{47557FCF-CD4E-BC47-A90A-AFC54E045C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual and Team Mission (MH" sheetId="5" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
   <si>
     <t>Date Fulfilled</t>
   </si>
@@ -130,10 +128,6 @@
     <t>Ab dem 04.11.2021</t>
   </si>
   <si>
-    <t>Mehrere Commits unter dem "Admin-Account" Arbeitsplatzkoordination für index.html, main.css und planning.html, sowie kleinere Anpassungen über den 
-Collaborator-Account DanielWeisner unter: https://github.com/Arbeitsplatzkoordination/Arbeitsplatzkoordination.github.io/commits/main</t>
-  </si>
-  <si>
     <t>Hypothese 2 - AP Steckbriefentwurf</t>
   </si>
   <si>
@@ -165,6 +159,19 @@
   <si>
     <t>- Feedback nach Pitch an andere Gruppe
 - Gespräch mit Bibliotheksleitung</t>
+  </si>
+  <si>
+    <t>Pitch.pptx - Folien 10 bis 16</t>
+  </si>
+  <si>
+    <t>Mehrere Commits unter dem "Admin-Account" Arbeitsplatzkoordination für index.html, main.css und planning.html, sowie kleinere Anpassungen über den 
+Collaborator-Account DanielWeisner</t>
+  </si>
+  <si>
+    <t>https://github.com/Arbeitsplatzkoordination/Arbeitsplatzkoordination.github.io/commits/main</t>
+  </si>
+  <si>
+    <t>Test- und Lernkarte Hypothese 3</t>
   </si>
 </sst>
 </file>
@@ -231,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -254,12 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -278,6 +279,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -600,27 +614,27 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.296875" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -628,27 +642,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -659,32 +673,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -695,39 +709,39 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -743,33 +757,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4C4E20-22F1-7A4C-A631-84F07513CA92}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.296875" customWidth="1"/>
-    <col min="3" max="3" width="53.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -777,17 +791,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -795,15 +809,18 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -814,37 +831,52 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>44520</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>44570</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -855,40 +887,40 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -898,6 +930,11 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A19:C19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{55D03886-9870-4039-9701-B8EE6DDA5F30}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{C54D6E95-245B-46A3-8DBE-3F24AAD5F61A}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{74829282-8B7B-42C8-973A-27CE7DD6BB86}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -906,32 +943,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A10212-E47A-0442-897B-B256F580BFDD}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.296875" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -939,145 +976,145 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5">
         <v>44536</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5">
         <v>44536</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="5">
         <v>44520</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="5">
         <v>44514</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="5">
         <v>44508</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="D15" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1106,27 +1143,27 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.296875" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1134,27 +1171,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1165,12 +1202,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1192,17 +1229,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1213,39 +1250,39 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>

--- a/Mission_Report_Gruppe.xlsx
+++ b/Mission_Report_Gruppe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alten\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pascalnunne/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A6CA66-6C4D-4D67-9557-B9AE9960B04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF601AE-70D8-0B43-BC61-7CD7B84FAF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{47557FCF-CD4E-BC47-A90A-AFC54E045C30}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="3" xr2:uid="{47557FCF-CD4E-BC47-A90A-AFC54E045C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual and Team Mission (MH" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
   <si>
     <t>Date Fulfilled</t>
   </si>
@@ -190,13 +190,56 @@
   </si>
   <si>
     <t>Name: Patrick Altena</t>
+  </si>
+  <si>
+    <t>- Durchgehen der Karten der"Done-Spalte" im Scumboard
+- Verbesserung für den nächsten Sprint mit dem ganzen Team besprechen: Auf die vergabe von Planning Poker Kennzahlen mehr achten
+- Gemeinsame Prüfung der Aktualität aller Projekthypothesen</t>
+  </si>
+  <si>
+    <t>Fragebogen erstellt</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/dfZ1CC3z
+https://github.com/Arbeitsplatzkoordination/Arbeitsplatzkoordination.github.io/blob/main/Umfrage%20für%20die%20Bedarfsermittlung.docx</t>
+  </si>
+  <si>
+    <t>Fragebogen an mind. 20 Studierendne durchgeführt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trello.com/c/ISi25wio
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umfrage ausgewährtet und eine unsere Hypothese damit beantwortet </t>
+  </si>
+  <si>
+    <t>https://trello.com/c/IMDS7Y4Z
+https://github.com/Arbeitsplatzkoordination/Arbeitsplatzkoordination.github.io/blob/main/Besteht_ein_Bedarf_bei_dem_Studierenden_am_Standort_Hagen.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/Arbeitsplatzkoordination/Arbeitsplatzkoordination.github.io/blob/main/Pitch_Arbeitsplatzkoordination.pptx</t>
+  </si>
+  <si>
+    <t>Seite 5-9</t>
+  </si>
+  <si>
+    <t>Ab den 15.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehrere Commits unter dem "Admin-Account" Arbeitsplatzkoordination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Arbeitsplatzkoordination/Arbeitsplatzkoordination.github.io/blob/main/Besteht_ein_Bedarf_bei_dem_Studierenden_am_Standort_Hagen.docx
+https://github.com/Arbeitsplatzkoordination/Arbeitsplatzkoordination.github.io/blob/main/Umfrage%20für%20die%20Bedarfsermittlung.docx
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,6 +267,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -313,6 +363,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -631,31 +688,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ED9802-A978-FC4E-89F4-684FFA6E96C9}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.296875" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -663,27 +720,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -694,32 +751,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -730,39 +787,39 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -780,31 +837,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4C4E20-22F1-7A4C-A631-84F07513CA92}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.296875" customWidth="1"/>
-    <col min="3" max="3" width="53.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -812,17 +869,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -836,12 +893,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -852,7 +909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -863,19 +920,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -886,7 +943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -897,7 +954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -908,40 +965,40 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -964,30 +1021,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A10212-E47A-0442-897B-B256F580BFDD}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.296875" customWidth="1"/>
-    <col min="3" max="3" width="59.59765625" customWidth="1"/>
-    <col min="4" max="4" width="31.296875" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1009,7 +1068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1023,7 +1082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +1096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,7 +1107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1070,7 +1129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1081,7 +1140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,7 +1162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1114,7 +1173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1128,39 +1187,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1186,33 +1245,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0186A6-2171-E24C-9EF4-0809EE208331}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.296875" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1220,27 +1280,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>44503</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>44510</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>44571</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1251,12 +1344,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1278,17 +1377,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="24">
+        <v>44520</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>44515</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1299,39 +1416,39 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1341,6 +1458,11 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A19:C19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://trello.com/c/dfZ1CC3z" xr:uid="{C01FFF90-F721-E34C-8A08-514BC6C96549}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{4B4E0933-7BA6-4D40-B74E-97A2C3096CCF}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{29C81E17-0560-8A4A-A01C-8515A21EE051}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>